--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1529904.371515555</v>
+        <v>1562482.586030754</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101358.991775824</v>
+        <v>8101358.991775823</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.12283097261258</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.38168328036053</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>194.947879416959</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>188.1805659437251</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1218,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>90.39957600792097</v>
+        <v>51.58226250338544</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.0248783365585</v>
+        <v>188.3396827868512</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>82.28018995116467</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>92.4784086463653</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>121.3827446497279</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>70.5241133150578</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>10.5421541965934</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>13.39716969355935</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>113.2768996767751</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>9.136888730010115</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,13 +1931,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>50.39085407108831</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.7408302595168</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>153.9026557627441</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5193922673733</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2214,19 +2216,19 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37669028362031</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>24.97975510385934</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>45.09111935667151</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.58819153171414</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>88.59832967195058</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>101.7096516417152</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>153.2399100772524</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>94.38897766723555</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>48.37669028361987</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5887103733622</v>
+        <v>156.848207690687</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>45.09111935667072</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.886841642301</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>147.7841405263552</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>91.6867458199809</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2934,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.8134234192864</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.7232056537448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.1071819698366</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>186.2352618259418</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3111,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>139.5584262893875</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>115.1165353722832</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>157.7242181217512</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>89.1207009909545</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>39.20016491933273</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>13.69289171884178</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.09006315696961</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>248.2662804388467</v>
       </c>
       <c r="I38" t="n">
-        <v>20.52154619639784</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>39.20016491933273</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.38391736390425</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>194.429507660552</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>147.347200282567</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>284.0146029892874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.72916582548071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>181.2558810106748</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>36.48436605885001</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.57056692594167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>74.30182844096016</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -4037,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>52.8934935707792</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>87.08036771626205</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
@@ -4074,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4116,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>48.23721201220801</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.812045700447195</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8134234192865</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>463.7839815061678</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C3" t="n">
-        <v>463.7839815061678</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D3" t="n">
-        <v>463.7839815061678</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
         <v>304.2053859195205</v>
@@ -4437,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>463.7839815061678</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>463.7839815061678</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W3" t="n">
-        <v>463.7839815061678</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X3" t="n">
-        <v>463.7839815061678</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y3" t="n">
-        <v>463.7839815061678</v>
+        <v>219.0522088294242</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4513,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4544,25 +4546,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.0001399844777</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C6" t="n">
-        <v>398.0001399844777</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
-        <v>249.0657303232264</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="W6" t="n">
-        <v>773.9757757694997</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="X6" t="n">
-        <v>773.9757757694997</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="Y6" t="n">
-        <v>566.2154770045457</v>
+        <v>842.6599081753446</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.7171143937231</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C9" t="n">
-        <v>224.7171143937231</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D9" t="n">
-        <v>224.7171143937231</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4887,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>432.4774131586771</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W9" t="n">
-        <v>432.4774131586771</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X9" t="n">
-        <v>432.4774131586771</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y9" t="n">
-        <v>224.7171143937231</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1989.169136893773</v>
+        <v>2154.507718257114</v>
       </c>
       <c r="C11" t="n">
-        <v>1620.206619953362</v>
+        <v>1785.545201316702</v>
       </c>
       <c r="D11" t="n">
-        <v>1261.940921346611</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E11" t="n">
-        <v>876.152668748367</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1667639587595</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5145,10 +5147,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2261.638519101242</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>2062.095821155272</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
         <v>2062.095821155272</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5227,22 +5229,22 @@
         <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1175.708299410783</v>
+        <v>1880.236945015434</v>
       </c>
       <c r="C14" t="n">
-        <v>806.7457824703715</v>
+        <v>1880.236945015434</v>
       </c>
       <c r="D14" t="n">
-        <v>448.480083863621</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>448.480083863621</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>448.480083863621</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>448.480083863621</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>118.1314745376623</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5312,16 +5314,16 @@
         <v>2270.376276991246</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.313389647675</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.313389647675</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X14" t="n">
-        <v>1565.847631386595</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y14" t="n">
-        <v>1175.708299410783</v>
+        <v>1880.236945015434</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5461,25 +5463,25 @@
         <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>401.7777381738809</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>556.1146817709025</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="C17" t="n">
-        <v>556.1146817709025</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D17" t="n">
-        <v>556.1146817709025</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E17" t="n">
-        <v>556.1146817709025</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F17" t="n">
-        <v>556.1146817709025</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2230.328711297595</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2010.345951929173</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2010.345951929173</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2010.345951929173</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>2010.345951929173</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>2010.345951929173</v>
       </c>
       <c r="Y17" t="n">
-        <v>556.1146817709025</v>
+        <v>1620.206619953362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>221.6448824165167</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5598,16 +5600,16 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P18" t="n">
         <v>2193.291384540003</v>
@@ -5637,7 +5639,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5697,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X19" t="n">
-        <v>225.4210876128734</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C20" t="n">
-        <v>1757.628112035911</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.628112035911</v>
+        <v>202.3522244848202</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>202.3522244848202</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>202.3522244848202</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5756,10 +5758,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2131.093870296991</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2131.093870296991</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2131.093870296991</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>2131.093870296991</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y20" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="21">
@@ -5862,16 +5864,16 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y21" t="n">
         <v>1157.094557224842</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>465.1667639587595</v>
+        <v>2319.517746219732</v>
       </c>
       <c r="C23" t="n">
-        <v>465.1667639587595</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D23" t="n">
-        <v>465.1667639587595</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>465.1667639587595</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5987,10 +5989,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2299.203236873458</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1968.140349529887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1615.371694259773</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1241.905935998693</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>851.7666040228812</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6071,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6090,13 +6092,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U24" t="n">
         <v>2062.095821155272</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.45570422889</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1871.339064816554</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U25" t="n">
-        <v>2190.391887156797</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1356.722640393067</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="C26" t="n">
-        <v>1356.722640393067</v>
+        <v>560.6179230915702</v>
       </c>
       <c r="D26" t="n">
-        <v>998.4569417863167</v>
+        <v>560.6179230915702</v>
       </c>
       <c r="E26" t="n">
-        <v>612.6686891880724</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F26" t="n">
-        <v>201.6827843984649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>201.6827843984649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>201.6827843984649</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V26" t="n">
-        <v>1356.722640393067</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W26" t="n">
-        <v>1356.722640393067</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X26" t="n">
-        <v>1356.722640393067</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="Y26" t="n">
-        <v>1356.722640393067</v>
+        <v>929.5804400319819</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6339,13 +6341,13 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W27" t="n">
-        <v>1460.197257673872</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y27" t="n">
         <v>1157.094557224842</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.5874281822333</v>
+        <v>205.3275294625403</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6385,49 +6387,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.5874281822333</v>
+        <v>386.97599429278</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1757.628112035911</v>
+        <v>510.7133491675176</v>
       </c>
       <c r="C29" t="n">
-        <v>1757.628112035911</v>
+        <v>465.1667639587593</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.628112035911</v>
+        <v>465.1667639587593</v>
       </c>
       <c r="E29" t="n">
-        <v>1371.839859437666</v>
+        <v>465.1667639587593</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587593</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164415</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q29" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2144.227952100032</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2144.227952100032</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>2144.227952100032</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>2144.227952100032</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W29" t="n">
-        <v>2144.227952100032</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X29" t="n">
-        <v>2144.227952100032</v>
+        <v>1287.452521207451</v>
       </c>
       <c r="Y29" t="n">
-        <v>2144.227952100032</v>
+        <v>897.3131892316394</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>829.9842651606477</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>655.5312358795208</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>655.5312358795208</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6576,16 +6578,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W30" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1996021807158</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.2216867641559</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6622,49 +6624,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="X31" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="Y31" t="n">
-        <v>228.543461271884</v>
+        <v>379.8701515943956</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1228.376076575211</v>
+        <v>1348.027890673861</v>
       </c>
       <c r="C32" t="n">
-        <v>1228.376076575211</v>
+        <v>979.065373733449</v>
       </c>
       <c r="D32" t="n">
-        <v>870.1103779684606</v>
+        <v>620.7996751266985</v>
       </c>
       <c r="E32" t="n">
-        <v>870.1103779684606</v>
+        <v>235.0114225284543</v>
       </c>
       <c r="F32" t="n">
-        <v>459.1244731788531</v>
+        <v>235.0114225284543</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>235.0114225284543</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6707,7 +6709,7 @@
         <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6716,34 +6718,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812103</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="X32" t="n">
-        <v>1618.515408551023</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="Y32" t="n">
-        <v>1228.376076575211</v>
+        <v>1734.627730737982</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>680.7073555380667</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6777,25 +6779,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6807,22 +6809,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1982.104420834408</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1753.923956488566</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1518.771848256823</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1264.534491528621</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1056.682991323089</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>848.9226925581347</v>
       </c>
     </row>
     <row r="34">
@@ -6859,49 +6861,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="U34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1570.897369376658</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C35" t="n">
-        <v>1201.934852436247</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="D35" t="n">
-        <v>843.6691538294961</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8809012312519</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6941,7 +6943,7 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
@@ -6953,34 +6955,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q35" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U35" t="n">
-        <v>2254.728911990343</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V35" t="n">
-        <v>1923.666024646772</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W35" t="n">
-        <v>1570.897369376658</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X35" t="n">
-        <v>1570.897369376658</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y35" t="n">
-        <v>1570.897369376658</v>
+        <v>1506.771186754353</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>783.3663200545598</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>608.9132907734328</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>459.9788811121815</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>300.741426106726</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>154.206868133611</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7014,52 +7016,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>951.5816570746279</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>197.01163585398</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7096,49 +7098,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382929</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382929</v>
+        <v>379.7790225382928</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1971.284063821136</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="C38" t="n">
-        <v>1971.284063821136</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="D38" t="n">
-        <v>1613.018365214386</v>
+        <v>1512.714941991911</v>
       </c>
       <c r="E38" t="n">
-        <v>1227.230112616142</v>
+        <v>1126.926689393667</v>
       </c>
       <c r="F38" t="n">
-        <v>816.2442078265342</v>
+        <v>715.9407846040592</v>
       </c>
       <c r="G38" t="n">
-        <v>397.972440309419</v>
+        <v>297.6690170869441</v>
       </c>
       <c r="H38" t="n">
-        <v>67.62383098346032</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7190,7 +7192,7 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q38" t="n">
         <v>2344.749822082216</v>
@@ -7202,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="X38" t="n">
-        <v>1971.284063821136</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="Y38" t="n">
-        <v>1971.284063821136</v>
+        <v>1870.980640598661</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>783.3663200545598</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>608.9132907734328</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>459.9788811121815</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>300.741426106726</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>154.206868133611</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>154.206868133611</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>951.5816570746279</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R40" t="n">
-        <v>2149.407627422406</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S40" t="n">
-        <v>1953.014185341041</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1446.794901949967</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C41" t="n">
-        <v>1077.832385009556</v>
+        <v>472.8137195706772</v>
       </c>
       <c r="D41" t="n">
-        <v>719.5666864028051</v>
+        <v>472.8137195706772</v>
       </c>
       <c r="E41" t="n">
-        <v>333.7784338045608</v>
+        <v>87.02546697243292</v>
       </c>
       <c r="F41" t="n">
-        <v>333.7784338045608</v>
+        <v>87.02546697243292</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>87.02546697243292</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>87.02546697243292</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7412,7 +7414,7 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L41" t="n">
         <v>762.591673824455</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1833.394742014089</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1833.394742014089</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1833.394742014089</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X41" t="n">
-        <v>1833.394742014089</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y41" t="n">
-        <v>1833.394742014089</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7490,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M42" t="n">
         <v>1125.906134925503</v>
@@ -7515,16 +7517,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W42" t="n">
         <v>1572.706356195328</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.947818781887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0116358539801</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2307.896927073277</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y43" t="n">
-        <v>547.5962836121267</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>876.152668748367</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C44" t="n">
-        <v>876.152668748367</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D44" t="n">
-        <v>876.152668748367</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E44" t="n">
-        <v>876.152668748367</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7664,34 +7666,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q44" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2012.128812168655</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1758.342390053523</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="X44" t="n">
-        <v>876.152668748367</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="Y44" t="n">
-        <v>876.152668748367</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>447.6797356739884</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
         <v>359.7197682838247</v>
@@ -7731,19 +7733,19 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350901</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773316</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="C46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="D46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="E46" t="n">
-        <v>198.221686764156</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F46" t="n">
-        <v>198.221686764156</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G46" t="n">
-        <v>198.221686764156</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7807,49 +7809,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L46" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N46" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O46" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="V46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="W46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="X46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.8701515943957</v>
+        <v>379.8701515943956</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O15" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998491</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392491</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991542</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082738</v>
+        <v>200.8922269696947</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.4978194579837</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579837</v>
+        <v>200.8922269696951</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>390.8949017221345</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.70896332692212</v>
+        <v>194.3941588766293</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>77.34102959728553</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1410289771301</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>233.300296970955</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>93.16108223464937</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>203.9867140323471</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.6918801483846</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>68.08626205662875</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23817,13 +23819,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,7 +23946,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>175.3188013179488</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.84382309257799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>260.1863940791999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.263539507364101</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24102,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>357.7540865596212</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24260,19 +24262,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>206.1574385373097</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>59.84577111485503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24385,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>197.6910041295856</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>280.2207184305466</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>10.4452854724548</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>111.3840075362419</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.3060054936845</v>
       </c>
     </row>
     <row r="28">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55.65811072526559</v>
+        <v>10.39861340794081</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,13 +24618,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24655,7 +24657,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>320.1817724143368</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>56.47632009110281</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -24737,16 +24739,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24762,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9.86093992904577</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.27705323942853</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24853,13 +24855,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>7.573373630534434</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24889,7 +24891,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.86144769835002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>5.98186787210733</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>140.8098614067572</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24999,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25047,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>57.98884467712213</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.4759103822496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25096,7 +25098,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>171.172798429253</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>249.1518276199602</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25208,19 +25210,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>162.1278569030267</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25245,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>97.49397208930213</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>166.1390884630955</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.356497693986</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>78.77884279385236</v>
       </c>
       <c r="I38" t="n">
-        <v>143.1636493533093</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>66.7636341400767</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.45538403358717</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
@@ -25570,7 +25572,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>20.09936056838848</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>78.2722373409284</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>130.0744468526566</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>123.9560297242265</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>70.43910215024479</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640812</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.0140864261531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>143.4811033337773</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>316.8376071076898</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>57.98884467712183</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26004,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>203.4577711487116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>141.621916946122</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.573373630534348</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
         <v>152.8143555761653</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616819.9859516615</v>
+        <v>616819.9859516612</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616819.9859516615</v>
+        <v>616819.9859516612</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>616819.9859516614</v>
+        <v>616819.9859516611</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>616819.9859516615</v>
+        <v>616819.9859516612</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
@@ -26320,37 +26322,37 @@
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="F2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="G2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="H2" t="n">
         <v>317251.3197170584</v>
-      </c>
-      <c r="H2" t="n">
-        <v>317251.3197170585</v>
       </c>
       <c r="I2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="J2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="K2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="L2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="M2" t="n">
         <v>317251.3197170585</v>
       </c>
-      <c r="M2" t="n">
-        <v>317251.3197170584</v>
-      </c>
       <c r="N2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="O2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="P2" t="n">
         <v>317251.3197170583</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
         <v>9200.106879687155</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76081.72291945864</v>
+        <v>76081.72291945876</v>
       </c>
       <c r="C6" t="n">
         <v>156851.1544510064</v>
@@ -26528,16 +26530,16 @@
         <v>156851.1544510064</v>
       </c>
       <c r="E6" t="n">
-        <v>-79782.852067028</v>
+        <v>-79782.85206702806</v>
       </c>
       <c r="F6" t="n">
         <v>265829.4907119247</v>
       </c>
       <c r="G6" t="n">
+        <v>265829.4907119249</v>
+      </c>
+      <c r="H6" t="n">
         <v>265829.4907119247</v>
-      </c>
-      <c r="H6" t="n">
-        <v>265829.4907119248</v>
       </c>
       <c r="I6" t="n">
         <v>265829.4907119247</v>
@@ -26549,16 +26551,16 @@
         <v>265829.4907119247</v>
       </c>
       <c r="L6" t="n">
-        <v>265829.4907119248</v>
+        <v>265829.4907119246</v>
       </c>
       <c r="M6" t="n">
         <v>179810.9568918488</v>
       </c>
       <c r="N6" t="n">
-        <v>265829.4907119249</v>
+        <v>265829.4907119248</v>
       </c>
       <c r="O6" t="n">
-        <v>265829.4907119247</v>
+        <v>265829.4907119248</v>
       </c>
       <c r="P6" t="n">
         <v>265829.4907119246</v>
@@ -26753,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26777,7 +26779,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26813,25 @@
         <v>586.1874555205541</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="L4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="M4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="N4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="O4" t="n">
         <v>586.1874555205541</v>
       </c>
       <c r="P4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.7532147690989</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.1515003695068</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,10 +27511,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>30.99350266401581</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,28 +27618,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>180.1392879855261</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>63.51441721719448</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.6756636163529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27938,16 +27940,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>67.24550444747997</v>
+        <v>106.0628179520155</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,25 +32706,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K23" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M23" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N23" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O23" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P23" t="n">
         <v>174.5298045144673</v>
@@ -32731,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S23" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I24" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -32807,7 +32809,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R24" t="n">
         <v>40.31853275515171</v>
@@ -32816,10 +32818,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R25" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T25" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,25 +32943,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K26" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M26" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N26" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O26" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P26" t="n">
         <v>174.5298045144673</v>
@@ -32968,16 +32970,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S26" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I27" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L27" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M27" t="n">
         <v>164.5381207449218</v>
@@ -33044,7 +33046,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33053,10 +33055,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R28" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T28" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,25 +33180,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K29" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M29" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N29" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O29" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P29" t="n">
         <v>174.5298045144673</v>
@@ -33205,16 +33207,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S29" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I30" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J30" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L30" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M30" t="n">
         <v>164.5381207449218</v>
@@ -33281,7 +33283,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R30" t="n">
         <v>40.31853275515171</v>
@@ -33290,10 +33292,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T30" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R31" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T31" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,25 +33417,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K32" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M32" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N32" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O32" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P32" t="n">
         <v>174.5298045144673</v>
@@ -33442,16 +33444,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S32" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I33" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L33" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M33" t="n">
         <v>164.5381207449218</v>
@@ -33518,7 +33520,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33527,10 +33529,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T33" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R34" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T34" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,25 +33654,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K35" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M35" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N35" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O35" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P35" t="n">
         <v>174.5298045144673</v>
@@ -33679,16 +33681,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S35" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I36" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L36" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M36" t="n">
         <v>164.5381207449218</v>
@@ -33755,7 +33757,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R36" t="n">
         <v>40.31853275515171</v>
@@ -33764,10 +33766,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T36" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R37" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T37" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,25 +33891,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K38" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M38" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N38" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O38" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P38" t="n">
         <v>174.5298045144673</v>
@@ -33916,16 +33918,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S38" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I39" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L39" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M39" t="n">
         <v>164.5381207449218</v>
@@ -33992,7 +33994,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R39" t="n">
         <v>40.31853275515171</v>
@@ -34001,10 +34003,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R40" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T40" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,25 +34128,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K41" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M41" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N41" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O41" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P41" t="n">
         <v>174.5298045144673</v>
@@ -34153,16 +34155,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S41" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I42" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J42" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L42" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M42" t="n">
         <v>164.5381207449218</v>
@@ -34229,7 +34231,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515171</v>
@@ -34238,10 +34240,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H43" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L43" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N43" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R43" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T43" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,43 +34365,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I44" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J44" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M44" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N44" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O44" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P44" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R44" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S44" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T44" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H45" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I45" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K45" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L45" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M45" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N45" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P45" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R45" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S45" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T45" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H46" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I46" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J46" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K46" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L46" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M46" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N46" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O46" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P46" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R46" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S46" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T46" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35735,16 +35737,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O15" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35978,7 +35980,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q18" t="n">
         <v>152.98832074971</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
         <v>14.92312141674913</v>
@@ -36212,7 +36214,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
@@ -36364,13 +36366,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N23" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>360.937879158497</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
@@ -36601,13 +36603,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N26" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36689,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
@@ -36838,13 +36840,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M29" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N29" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608303</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
@@ -37075,13 +37077,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M32" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N32" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>75.52871390503797</v>
+        <v>167.9114421664589</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37166,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
@@ -37312,13 +37314,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M35" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N35" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K36" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37549,13 +37551,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N38" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37637,7 +37639,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37786,13 +37788,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547479</v>
+        <v>167.9114421664593</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
@@ -37953,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M44" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N44" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P44" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685985</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>402.8027153709872</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L46" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M46" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N46" t="n">
         <v>127.4430518046842</v>
@@ -38190,7 +38192,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P46" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1562482.586030754</v>
+        <v>1520658.804361747</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101358.991775823</v>
+        <v>8101358.991775824</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57.16776090941368</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.38168328036053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>31.79013109909386</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>20.02544070929549</v>
+        <v>81.64537052038806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>51.58226250338544</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>34.0780862217423</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.3396827868512</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>231.3540277618127</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>14.83191020883758</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>121.3827446497279</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>263.3949424079345</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>9.136888730010115</v>
       </c>
     </row>
     <row r="16">
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3472002825671</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>9.930787366636727</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>113.2768996767751</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.136888730010115</v>
+        <v>128.8785129580573</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1940,7 +1940,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>50.39085407108831</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>43.72692656979635</v>
       </c>
       <c r="G20" t="n">
-        <v>153.9026557627441</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -2137,7 +2137,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>48.37669028362031</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>54.21297465918772</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.97975510385934</v>
+        <v>189.7309761356952</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>88.59832967195058</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>16.83786409935477</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>101.7096516417152</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>12.8459209651664</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>14.83191020883713</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.37669028361987</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.848207690687</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>191.2591398496931</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45.09111935667072</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>26.17681189757402</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>147.7841405263552</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>38.20100533369686</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>15.90261509500207</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>149.8134234192864</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>186.2352618259418</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>62.31843048847891</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>139.5584262893875</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>16.60419956430017</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1165353722832</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>157.7242181217512</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>207.9316113046334</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>39.20016491933273</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289808</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.69289171884178</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>45.68653733099706</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>248.2662804388467</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>102.6870495264505</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>39.20016491933273</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749143</v>
+        <v>14.83191020883786</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.347200282567</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>103.3189067219406</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72916582548071</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.76294229564161</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3878,16 +3878,16 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>9.136888730009664</v>
       </c>
     </row>
     <row r="43">
@@ -3900,28 +3900,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>36.48436605885001</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>71.95598625692331</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>130.8842607863095</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>74.30182844096016</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>138.5445937290041</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>48.23721201220801</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>4.812045700447195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>114.7943575370063</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>89.09634539710788</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.2727307684539</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>179.2727307684539</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>179.2727307684539</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>729.759317334964</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>729.759317334964</v>
       </c>
       <c r="W3" t="n">
-        <v>634.6640077999109</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="X3" t="n">
-        <v>426.8125075943781</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.0522088294242</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="4">
@@ -4470,16 +4470,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4603,16 +4603,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.6599081753446</v>
+        <v>256.869462878957</v>
       </c>
       <c r="C6" t="n">
-        <v>668.2068788942177</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>842.6599081753446</v>
+        <v>708.1697397285899</v>
       </c>
       <c r="U6" t="n">
-        <v>842.6599081753446</v>
+        <v>708.1697397285899</v>
       </c>
       <c r="V6" t="n">
-        <v>842.6599081753446</v>
+        <v>708.1697397285899</v>
       </c>
       <c r="W6" t="n">
-        <v>842.6599081753446</v>
+        <v>464.7209630844898</v>
       </c>
       <c r="X6" t="n">
-        <v>842.6599081753446</v>
+        <v>256.869462878957</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.6599081753446</v>
+        <v>256.869462878957</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>766.0008400101203</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>929.634846195745</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2175016464139</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>554.0309070051799</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>325.807288741569</v>
       </c>
       <c r="V9" t="n">
-        <v>454.3181732824481</v>
+        <v>325.807288741569</v>
       </c>
       <c r="W9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
       <c r="X9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y9" t="n">
-        <v>210.869396638348</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.507718257114</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C11" t="n">
-        <v>1785.545201316702</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D11" t="n">
-        <v>1427.279502709952</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5041,16 +5041,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5083,10 +5083,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5123,7 +5123,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
         <v>705.6153558007836</v>
@@ -5132,7 +5132,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
         <v>1887.88481026779</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5220,22 +5220,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W13" t="n">
         <v>46.89499644164432</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1880.236945015434</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="C14" t="n">
-        <v>1880.236945015434</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5305,25 +5305,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.376276991246</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2270.376276991246</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>2270.376276991246</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X14" t="n">
-        <v>2270.376276991246</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="Y14" t="n">
-        <v>1880.236945015434</v>
+        <v>1016.293597920344</v>
       </c>
     </row>
     <row r="15">
@@ -5357,52 +5357,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5457,19 +5457,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V16" t="n">
         <v>46.89499644164432</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1620.206619953362</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="C17" t="n">
-        <v>1620.206619953362</v>
+        <v>1244.449465705256</v>
       </c>
       <c r="D17" t="n">
-        <v>1261.940921346611</v>
+        <v>886.1837670985051</v>
       </c>
       <c r="E17" t="n">
         <v>876.152668748367</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2230.328711297595</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2010.345951929173</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2010.345951929173</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.345951929173</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W17" t="n">
-        <v>2010.345951929173</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X17" t="n">
-        <v>2010.345951929173</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y17" t="n">
-        <v>1620.206619953362</v>
+        <v>1613.411982645667</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5606,10 +5606,10 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
         <v>2193.291384540003</v>
@@ -5618,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.1084007401373</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V19" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W19" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>267.6875755851744</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>929.5804400319823</v>
+        <v>867.601075262274</v>
       </c>
       <c r="C20" t="n">
-        <v>560.6179230915707</v>
+        <v>867.601075262274</v>
       </c>
       <c r="D20" t="n">
-        <v>202.3522244848202</v>
+        <v>509.3353766555235</v>
       </c>
       <c r="E20" t="n">
-        <v>202.3522244848202</v>
+        <v>509.3353766555235</v>
       </c>
       <c r="F20" t="n">
-        <v>202.3522244848202</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5758,10 +5758,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X20" t="n">
-        <v>929.5804400319823</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="Y20" t="n">
-        <v>929.5804400319823</v>
+        <v>867.601075262274</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5834,13 +5834,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>1157.094557224842</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>1827.343101147238</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.517746219732</v>
+        <v>1542.980280095866</v>
       </c>
       <c r="C23" t="n">
-        <v>1950.55522927932</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G23" t="n">
         <v>377.243605767603</v>
@@ -5992,7 +5992,7 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6019,22 +6019,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>1734.627730737983</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O24" t="n">
         <v>1887.88481026779</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="25">
@@ -6150,40 +6150,40 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U25" t="n">
-        <v>301.5794846475312</v>
+        <v>318.587428182233</v>
       </c>
       <c r="V25" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634612</v>
       </c>
       <c r="W25" t="n">
         <v>46.89499644164432</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>929.5804400319819</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C26" t="n">
-        <v>560.6179230915702</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D26" t="n">
-        <v>560.6179230915702</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8809012312519</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129221</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.198404760799</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="V26" t="n">
-        <v>1282.349095302096</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="W26" t="n">
-        <v>929.5804400319819</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="X26" t="n">
-        <v>929.5804400319819</v>
+        <v>2148.5790314776</v>
       </c>
       <c r="Y26" t="n">
-        <v>929.5804400319819</v>
+        <v>1758.439699501788</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673871</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>1205.95990094567</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.3275294625403</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F28" t="n">
         <v>46.89499644164432</v>
@@ -6426,10 +6426,10 @@
         <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363101</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.97599429278</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>510.7133491675176</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C29" t="n">
-        <v>465.1667639587593</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D29" t="n">
-        <v>465.1667639587593</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587593</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587593</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164415</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164415</v>
@@ -6490,25 +6490,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082216</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="U29" t="n">
-        <v>2344.749822082216</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="V29" t="n">
-        <v>2013.686934738645</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="W29" t="n">
-        <v>1660.918279468531</v>
+        <v>1965.539942673138</v>
       </c>
       <c r="X29" t="n">
-        <v>1287.452521207451</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="Y29" t="n">
-        <v>897.3131892316394</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>829.9842651606477</v>
+        <v>821.6754629010843</v>
       </c>
       <c r="C30" t="n">
-        <v>655.5312358795208</v>
+        <v>647.2224336199573</v>
       </c>
       <c r="D30" t="n">
-        <v>655.5312358795208</v>
+        <v>498.288023958706</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>339.0505689532505</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>192.5160109801355</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>192.5160109801355</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>85.48187051608559</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M30" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
         <v>1486.172378671464</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851583</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673871</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.502598891639</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.95990094567</v>
+        <v>1197.651098686106</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.1996021807158</v>
+        <v>989.8907999211524</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.2216867641559</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="C31" t="n">
-        <v>198.2216867641559</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="D31" t="n">
-        <v>198.2216867641559</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="E31" t="n">
-        <v>198.2216867641559</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F31" t="n">
-        <v>198.2216867641559</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G31" t="n">
-        <v>198.2216867641559</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6648,25 +6648,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="X31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.8701515943956</v>
+        <v>391.0727469424308</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1348.027890673861</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="C32" t="n">
-        <v>979.065373733449</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D32" t="n">
-        <v>620.7996751266985</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E32" t="n">
-        <v>235.0114225284543</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F32" t="n">
-        <v>235.0114225284543</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G32" t="n">
-        <v>235.0114225284543</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376118</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713794</v>
+        <v>2207.428367406923</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713794</v>
+        <v>1953.64194529179</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713794</v>
+        <v>1622.57905794822</v>
       </c>
       <c r="W32" t="n">
-        <v>2124.767062713794</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="X32" t="n">
-        <v>2124.767062713794</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="Y32" t="n">
-        <v>1734.627730737982</v>
+        <v>1269.810402678106</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.7073555380667</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C33" t="n">
-        <v>506.2543262569397</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D33" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,22 +6782,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6809,22 +6809,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1982.104420834408</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1753.923956488566</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1518.771848256823</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W33" t="n">
-        <v>1264.534491528621</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1056.682991323089</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y33" t="n">
-        <v>848.9226925581347</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346267</v>
       </c>
       <c r="C34" t="n">
         <v>46.89499644164432</v>
@@ -6885,25 +6885,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S34" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T34" t="n">
-        <v>163.1743251005162</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346267</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346267</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.66691519346267</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1120.171346690232</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C35" t="n">
-        <v>1120.171346690232</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D35" t="n">
-        <v>1120.171346690232</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
-        <v>1120.171346690232</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991245</v>
+        <v>2134.717891471475</v>
       </c>
       <c r="U35" t="n">
-        <v>2270.376276991245</v>
+        <v>1880.931469356342</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.376276991245</v>
+        <v>1549.868582012772</v>
       </c>
       <c r="W35" t="n">
-        <v>2270.376276991245</v>
+        <v>1197.099926742658</v>
       </c>
       <c r="X35" t="n">
-        <v>1896.910518730165</v>
+        <v>823.6341684815778</v>
       </c>
       <c r="Y35" t="n">
-        <v>1506.771186754353</v>
+        <v>433.4948365057661</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>783.3663200545598</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>608.9132907734328</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>459.9788811121815</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>300.741426106726</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F36" t="n">
-        <v>154.206868133611</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M36" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7043,25 +7043,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2084.763385350901</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1856.582921005059</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1621.430812773316</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.193456045115</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1159.341955839582</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>951.5816570746279</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>365.947818781887</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="C37" t="n">
-        <v>197.01163585398</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>240.9561075300951</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>93.04301394770195</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>93.04301394770195</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>93.04301394770195</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7122,25 +7122,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382928</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382928</v>
+        <v>391.0727469424308</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1870.980640598661</v>
+        <v>1630.903438287023</v>
       </c>
       <c r="C38" t="n">
-        <v>1870.980640598661</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D38" t="n">
-        <v>1512.714941991911</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E38" t="n">
-        <v>1126.926689393667</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>715.9407846040592</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>297.6690170869441</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7174,10 +7174,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
         <v>762.591673824455</v>
@@ -7192,7 +7192,7 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
         <v>2344.749822082216</v>
@@ -7201,25 +7201,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2241.025529631256</v>
       </c>
       <c r="T38" t="n">
-        <v>2124.767062713794</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="U38" t="n">
-        <v>1870.980640598661</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="V38" t="n">
-        <v>1870.980640598661</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="W38" t="n">
-        <v>1870.980640598661</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="X38" t="n">
-        <v>1870.980640598661</v>
+        <v>2021.042770262835</v>
       </c>
       <c r="Y38" t="n">
-        <v>1870.980640598661</v>
+        <v>1630.903438287023</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>783.3663200545598</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C39" t="n">
-        <v>608.9132907734328</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D39" t="n">
-        <v>459.9788811121815</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E39" t="n">
-        <v>300.741426106726</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F39" t="n">
-        <v>154.206868133611</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G39" t="n">
-        <v>154.206868133611</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2329.768094598542</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2168.534539499097</v>
       </c>
       <c r="T39" t="n">
-        <v>2084.763385350901</v>
+        <v>1968.991841553128</v>
       </c>
       <c r="U39" t="n">
-        <v>1856.582921005059</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V39" t="n">
-        <v>1621.430812773316</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.193456045115</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X39" t="n">
-        <v>1159.341955839582</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y39" t="n">
-        <v>951.5816570746279</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200977</v>
@@ -7353,31 +7353,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S40" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>503.4060413939459</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>841.7762365110889</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C41" t="n">
-        <v>472.8137195706772</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D41" t="n">
-        <v>472.8137195706772</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E41" t="n">
-        <v>87.02546697243292</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F41" t="n">
-        <v>87.02546697243292</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G41" t="n">
-        <v>87.02546697243292</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H41" t="n">
-        <v>87.02546697243292</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7429,7 +7429,7 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q41" t="n">
         <v>2344.749822082216</v>
@@ -7438,25 +7438,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2281.352910672477</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2061.370151304055</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2061.370151304055</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1730.307263960485</v>
       </c>
       <c r="W41" t="n">
-        <v>1991.981166812102</v>
+        <v>1730.307263960485</v>
       </c>
       <c r="X41" t="n">
-        <v>1618.515408551022</v>
+        <v>1730.307263960485</v>
       </c>
       <c r="Y41" t="n">
-        <v>1228.376076575211</v>
+        <v>1340.167931984673</v>
       </c>
     </row>
     <row r="42">
@@ -7493,49 +7493,49 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>273.126860749845</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583288</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1755.793104690959</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C43" t="n">
-        <v>2344.749822082216</v>
+        <v>438.8323905084033</v>
       </c>
       <c r="D43" t="n">
-        <v>2344.749822082216</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="E43" t="n">
-        <v>2344.749822082216</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="F43" t="n">
-        <v>2307.896927073277</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="G43" t="n">
-        <v>2138.758986819787</v>
+        <v>119.577810842577</v>
       </c>
       <c r="H43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1427.279502709952</v>
+        <v>983.161340583579</v>
       </c>
       <c r="C44" t="n">
-        <v>1427.279502709952</v>
+        <v>983.161340583579</v>
       </c>
       <c r="D44" t="n">
-        <v>1427.279502709952</v>
+        <v>983.161340583579</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.491250111708</v>
+        <v>597.3730879853347</v>
       </c>
       <c r="F44" t="n">
-        <v>630.5053453221001</v>
+        <v>597.3730879853347</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>179.1013204682195</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>179.1013204682195</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2012.128812168655</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1758.342390053523</v>
+        <v>2090.963399967083</v>
       </c>
       <c r="V44" t="n">
-        <v>1427.279502709952</v>
+        <v>1759.900512623512</v>
       </c>
       <c r="W44" t="n">
-        <v>1427.279502709952</v>
+        <v>1759.900512623512</v>
       </c>
       <c r="X44" t="n">
-        <v>1427.279502709952</v>
+        <v>1759.900512623512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1427.279502709952</v>
+        <v>1369.761180647701</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G45" t="n">
         <v>221.6448824165167</v>
@@ -7727,16 +7727,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M45" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2084.763385350901</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1856.582921005059</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1621.430812773316</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D46" t="n">
-        <v>379.8701515943956</v>
+        <v>457.6519340239744</v>
       </c>
       <c r="E46" t="n">
-        <v>375.0094993717216</v>
+        <v>309.7388404415813</v>
       </c>
       <c r="F46" t="n">
-        <v>375.0094993717216</v>
+        <v>162.8488929436709</v>
       </c>
       <c r="G46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7836,22 +7836,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.8701515943956</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,10 +8780,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>323.3866360392491</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841364</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841357</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>214.8846069991542</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998484</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509604</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>200.8922269696951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119839</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3941588766293</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>175.5220179798987</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>233.300296970955</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>106.3361582705345</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>196.5458070472942</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.27223734092829</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.9995827056251</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.08626205662875</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.3962949198572</v>
+        <v>37.65467069181003</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,22 +23943,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>209.0152380591951</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>175.3188013179488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>363.1491191719151</v>
       </c>
       <c r="G20" t="n">
-        <v>260.1863940791999</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>232.0763591423484</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.7540865596212</v>
+        <v>193.0028655277854</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>197.6910041295856</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372362</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>280.2207184305466</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>204.9370108095711</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>130.2373021845468</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.3060054936845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39861340794081</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>34.45051553934405</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>320.1817724143368</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24730,7 +24730,7 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>155.1863498358298</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -24739,7 +24739,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>9.86093992904577</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>28.83758272201739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7128579232103</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.573373630534434</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24888,10 +24888,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>140.8098614067572</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>155.4645012862586</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.27705323942895</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>57.98884467712213</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>150.6426215343277</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,19 +25125,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>171.172798429253</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>249.1518276199602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>9.851320470104071</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>97.49397208930213</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>53.38246657340352</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.1390884630955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>111.7002597188238</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25362,7 +25362,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.6194376234954</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>78.77884279385236</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25441,13 +25441,13 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>78.67611220695336</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>66.7636341400767</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.00739118865357</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620182</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>78.2722373409284</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>148.8187366018874</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>123.9560297242265</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>118.6002194377622</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>196.5458070472947</v>
       </c>
     </row>
     <row r="43">
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>108.9366819640812</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>85.43081079289756</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>32.80093476339775</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>143.4811033337773</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>8.900471835634619</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>203.4577711487116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.621916946122</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>52.6522033139493</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288916</v>
@@ -26076,7 +26076,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616819.9859516612</v>
+        <v>616819.9859516611</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616819.9859516612</v>
+        <v>616819.9859516611</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>616819.9859516614</v>
+        <v>616819.9859516612</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616819.9859516612</v>
+        <v>616819.9859516611</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>616819.9859516611</v>
+        <v>616819.9859516614</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>616819.9859516611</v>
+        <v>616819.9859516612</v>
       </c>
     </row>
     <row r="14">
@@ -26322,40 +26322,40 @@
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="F2" t="n">
         <v>317251.3197170583</v>
-      </c>
-      <c r="F2" t="n">
-        <v>317251.3197170584</v>
       </c>
       <c r="G2" t="n">
         <v>317251.3197170586</v>
       </c>
       <c r="H2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="I2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="J2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="K2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="L2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="M2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="N2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="O2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="P2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76081.72291945876</v>
+        <v>76081.7229194587</v>
       </c>
       <c r="C6" t="n">
         <v>156851.1544510064</v>
@@ -26530,40 +26530,40 @@
         <v>156851.1544510064</v>
       </c>
       <c r="E6" t="n">
-        <v>-79782.85206702806</v>
+        <v>-87090.0913254242</v>
       </c>
       <c r="F6" t="n">
-        <v>265829.4907119247</v>
+        <v>258522.2514535283</v>
       </c>
       <c r="G6" t="n">
-        <v>265829.4907119249</v>
+        <v>258522.2514535285</v>
       </c>
       <c r="H6" t="n">
-        <v>265829.4907119247</v>
+        <v>258522.2514535285</v>
       </c>
       <c r="I6" t="n">
-        <v>265829.4907119247</v>
+        <v>258522.2514535284</v>
       </c>
       <c r="J6" t="n">
-        <v>202769.5481128184</v>
+        <v>195462.3088544224</v>
       </c>
       <c r="K6" t="n">
-        <v>265829.4907119247</v>
+        <v>258522.2514535284</v>
       </c>
       <c r="L6" t="n">
-        <v>265829.4907119246</v>
+        <v>258522.2514535284</v>
       </c>
       <c r="M6" t="n">
-        <v>179810.9568918488</v>
+        <v>172503.7176334523</v>
       </c>
       <c r="N6" t="n">
-        <v>265829.4907119248</v>
+        <v>258522.2514535285</v>
       </c>
       <c r="O6" t="n">
-        <v>265829.4907119248</v>
+        <v>258522.2514535285</v>
       </c>
       <c r="P6" t="n">
-        <v>265829.4907119246</v>
+        <v>258522.2514535284</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="J3" t="n">
         <v>301.9048087062786</v>
@@ -26825,10 +26825,10 @@
         <v>586.187455520554</v>
       </c>
       <c r="N4" t="n">
+        <v>586.1874555205541</v>
+      </c>
+      <c r="O4" t="n">
         <v>586.187455520554</v>
-      </c>
-      <c r="O4" t="n">
-        <v>586.1874555205541</v>
       </c>
       <c r="P4" t="n">
         <v>586.187455520554</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27393,16 +27393,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>282.3070412063535</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.1515003695068</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>194.151250981881</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>180.1392879855261</v>
+        <v>118.5193581744335</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>341.4540909391266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>22.9350164552794</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27940,13 +27940,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>106.0628179520155</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>66.07974793090084</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31779,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31849,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32016,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32086,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H23" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I23" t="n">
         <v>46.79069402069872</v>
       </c>
       <c r="J23" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K23" t="n">
         <v>154.3856233586785</v>
@@ -32733,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H24" t="n">
         <v>6.271645177087033</v>
@@ -32788,7 +32788,7 @@
         <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32800,7 +32800,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O24" t="n">
         <v>154.5040580932971</v>
@@ -32809,10 +32809,10 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S24" t="n">
         <v>12.06195155538763</v>
@@ -32821,7 +32821,7 @@
         <v>2.61745772831198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I25" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J25" t="n">
         <v>38.49038848047095</v>
       </c>
       <c r="K25" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100415</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U25" t="n">
         <v>0.02969555495471595</v>
@@ -34783,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35424,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35500,10 +35500,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35661,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35737,16 +35737,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
         <v>152.98832074971</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36211,10 +36211,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K23" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L23" t="n">
         <v>373.4238170675629</v>
@@ -36369,13 +36369,13 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N23" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O23" t="n">
         <v>355.1946887874304</v>
       </c>
       <c r="P23" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q23" t="n">
         <v>121.0739155037673</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828881</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36445,19 +36445,19 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N24" t="n">
-        <v>360.937879158497</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329891</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>152.9883207497099</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36533,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36688,13 +36688,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329884</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>217.3283173608303</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -37150,7 +37150,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674905</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651352</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702083</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37642,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>167.9114421664593</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>432.2802359107711</v>
       </c>
       <c r="N44" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620585</v>
       </c>
       <c r="O44" t="n">
         <v>355.1946887874304</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093428</v>
@@ -38104,10 +38104,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M45" t="n">
-        <v>332.1534122685985</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255822</v>
